--- a/templates/community/FAIRagro/Agronomy_-_Harvest/Agronomy_-_Harvest_v1.0.0.xlsx
+++ b/templates/community/FAIRagro/Agronomy_-_Harvest/Agronomy_-_Harvest_v1.0.0.xlsx
@@ -167,7 +167,7 @@
     <t>0000-0001-6007-7948</t>
   </si>
   <si>
-    <t>Input [Source Name]</t>
+    <t>Input [Sample Name]</t>
   </si>
   <si>
     <t>Characteristic [harvested crop]</t>
@@ -260,7 +260,7 @@
     <t>Term Accession Number (AGRO:00000559)</t>
   </si>
   <si>
-    <t>Output [Source Name]</t>
+    <t>Output [Sample Name]</t>
   </si>
   <si>
     <t/>
@@ -418,7 +418,7 @@
     <filterColumn colId="31" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="32">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Characteristic [harvested crop]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (AGRO:00002049)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (AGRO:00002049)" totalsRowFunction="none"/>
@@ -449,7 +449,7 @@
     <tableColumn id="29" name="Unit  " totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (AGRO:00000559)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (AGRO:00000559)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Output [Source Name]" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
